--- a/ocms/target/test-classes/TestData/FaxRoutingConfigData.xlsx
+++ b/ocms/target/test-classes/TestData/FaxRoutingConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>FaxLine</t>
   </si>
   <si>
-    <t>4444</t>
-  </si>
-  <si>
     <t>Intent</t>
   </si>
   <si>
-    <t>VIP</t>
-  </si>
-  <si>
     <t>Queue</t>
   </si>
   <si>
@@ -42,9 +36,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>12345</t>
   </si>
   <si>
     <t>RouteType</t>
@@ -98,6 +89,21 @@
   </si>
   <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>49012</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,50 +464,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +537,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,51 +555,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +612,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,39 +627,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -660,12 +683,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/FaxRoutingConfigData.xlsx
+++ b/ocms/target/test-classes/TestData/FaxRoutingConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
@@ -88,9 +88,6 @@
   FROM [Product_OCM].[dbo].[Fax_RouteMap]</t>
   </si>
   <si>
-    <t>20000</t>
-  </si>
-  <si>
     <t>1919</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>49012</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -490,12 +490,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -512,19 +512,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +578,7 @@
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/ocms/target/test-classes/TestData/FaxRoutingConfigData.xlsx
+++ b/ocms/target/test-classes/TestData/FaxRoutingConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>FaxLine</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>49012</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -448,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,9 +490,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -536,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,6 +659,26 @@
         <v>17</v>
       </c>
       <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
